--- a/Material/Requirement Sheet.xlsx
+++ b/Material/Requirement Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vtu86\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D49F2FF-D6FA-42D8-B42F-8843B7F3DFD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77A4CD4-2319-4555-BBC1-D05C5EFDEE00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,46 +67,6 @@
 /admin/deleteadmin
 /admin/getadmin
 /admin/getalladmin</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping : POST (/admin/addadmin(raw-&gt;body-&gt;JSON)
-{
-'adminId':'3',
-'adminName':'Sai ',
-'adminPassword':'sai@123',
-}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Request Response:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-HTTP status:200 OK</t>
-    </r>
   </si>
   <si>
     <r>
@@ -577,19 +537,6 @@
   </si>
   <si>
     <t>Order module</t>
-  </si>
-  <si>
-    <t>Mapping : POST (/order/addorder(raw-&gt;body-&gt;JSON)
-{
-'orderNumber':'2',
-'delivaryPlace':'Chennai ',
-'delivarydate':'21-09-2021',
-'quantity':'15'
-'scheduler_Id' = '1'
-'customer_Id'='9'
-contract_Number='3'
-}
-HTTP status:200 OK</t>
   </si>
   <si>
     <t>Mapping : DELETE (/order/deleteorder/2)
@@ -1083,9 +1030,6 @@
 </t>
   </si>
   <si>
-    <t>prasanth - 1,6 / r sai tarun - 2, 3 , 4,5</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. add contract
 2. delete contract by contractid
 3.update contract by contractid
@@ -1105,17 +1049,73 @@
   <si>
     <t xml:space="preserve">avinash - 1,2 ,3/ abhishek- 4,5,6 </t>
   </si>
+  <si>
+    <t>prasanth - 1,5 / r sai tarun - 2, 3 , 4,6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mapping : POST (/admin/addadmin(raw-&gt;body-&gt;JSON)
+{
+'adminId':'3',
+'adminName':'Sai ',
+'adminPassword':'sai@123',
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Request Response:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+HTTP status:201 CREATED</t>
+    </r>
+  </si>
+  <si>
+    <t>Mapping : POST (/order/addorder(raw-&gt;body-&gt;JSON)
+{
+'orderNumber':'2',
+'delivaryPlace':'Chennai ',
+'delivarydate':'21-09-2021',
+'quantity':'15'
+'scheduler_Id' = '1'
+'customer_Id'='9'
+contract_Number='3'
+}
+HTTP status:201 CREATED</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1169,7 +1169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1177,15 +1177,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,22 +1465,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" customWidth="1"/>
-    <col min="3" max="3" width="34.81640625" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="5" width="32.453125" customWidth="1"/>
-    <col min="6" max="6" width="26.08984375" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" customWidth="1"/>
-    <col min="9" max="9" width="23.1796875" customWidth="1"/>
-    <col min="10" max="10" width="20.6328125" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1514,7 +1515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="159.5">
+    <row r="2" spans="1:10" ht="144">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1525,217 +1526,217 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="345.6">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="403.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="409.6">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="345.6">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="374.4">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="259.2">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="348">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="406">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="409.5">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="348">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="377">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="261">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="I8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
